--- a/data/pca/factorExposure/factorExposure_2009-08-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01768477075309892</v>
+        <v>0.01678892003371835</v>
       </c>
       <c r="C2">
-        <v>-0.00154680020791826</v>
+        <v>-0.0009128365278584419</v>
       </c>
       <c r="D2">
-        <v>-0.003758976640110771</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009489938363721586</v>
+      </c>
+      <c r="E2">
+        <v>0.00220348649564805</v>
+      </c>
+      <c r="F2">
+        <v>-0.0132766621756542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09547925091586196</v>
+        <v>0.0938375048969198</v>
       </c>
       <c r="C4">
-        <v>-0.02097622142965391</v>
+        <v>-0.01471620573406048</v>
       </c>
       <c r="D4">
-        <v>-0.06621407658192913</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08370149225115789</v>
+      </c>
+      <c r="E4">
+        <v>0.02878701317429091</v>
+      </c>
+      <c r="F4">
+        <v>0.03297369360009687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1489043539483595</v>
+        <v>0.1594381407960465</v>
       </c>
       <c r="C6">
-        <v>-0.02763113442338436</v>
+        <v>-0.02710861604270033</v>
       </c>
       <c r="D6">
-        <v>0.02610567417766483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02527645952721546</v>
+      </c>
+      <c r="E6">
+        <v>0.008828036814629727</v>
+      </c>
+      <c r="F6">
+        <v>0.042123706741026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.064059938585942</v>
+        <v>0.06354579624827822</v>
       </c>
       <c r="C7">
-        <v>-0.002885365414082824</v>
+        <v>0.001691771919656181</v>
       </c>
       <c r="D7">
-        <v>-0.03970813577931612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0523822249001738</v>
+      </c>
+      <c r="E7">
+        <v>0.01194752682692661</v>
+      </c>
+      <c r="F7">
+        <v>0.04663624734926288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06368226641789759</v>
+        <v>0.05803002280682047</v>
       </c>
       <c r="C8">
-        <v>0.009877075597399382</v>
+        <v>0.01305752177792569</v>
       </c>
       <c r="D8">
-        <v>-0.01794883633136875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0318431970659975</v>
+      </c>
+      <c r="E8">
+        <v>0.0177046550391158</v>
+      </c>
+      <c r="F8">
+        <v>-0.02589539273958639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07358287338469173</v>
+        <v>0.07088198960246175</v>
       </c>
       <c r="C9">
-        <v>-0.01729446921251879</v>
+        <v>-0.01030807450788692</v>
       </c>
       <c r="D9">
-        <v>-0.06860629100414749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08721870045807824</v>
+      </c>
+      <c r="E9">
+        <v>0.02397631878814349</v>
+      </c>
+      <c r="F9">
+        <v>0.04704274507680269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08236899104239789</v>
+        <v>0.09000440668799817</v>
       </c>
       <c r="C10">
-        <v>-0.01211765022253877</v>
+        <v>-0.02064051987582225</v>
       </c>
       <c r="D10">
-        <v>0.166510348222142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1628870134407445</v>
+      </c>
+      <c r="E10">
+        <v>-0.03201628437729872</v>
+      </c>
+      <c r="F10">
+        <v>-0.05749039550757926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09349560445643461</v>
+        <v>0.08823845433207847</v>
       </c>
       <c r="C11">
-        <v>-0.01818011462525148</v>
+        <v>-0.01042869400689536</v>
       </c>
       <c r="D11">
-        <v>-0.09616226518711089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169437504488575</v>
+      </c>
+      <c r="E11">
+        <v>0.04636164872224736</v>
+      </c>
+      <c r="F11">
+        <v>0.02320127479583386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09967705007047302</v>
+        <v>0.09155714871954654</v>
       </c>
       <c r="C12">
-        <v>-0.01610917387090598</v>
+        <v>-0.007754263495751354</v>
       </c>
       <c r="D12">
-        <v>-0.09954338897029391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316692720381747</v>
+      </c>
+      <c r="E12">
+        <v>0.04567837450929795</v>
+      </c>
+      <c r="F12">
+        <v>0.0314760897742264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04444499484924146</v>
+        <v>0.04153559641865332</v>
       </c>
       <c r="C13">
-        <v>-0.005985110933243474</v>
+        <v>-0.002438358446107663</v>
       </c>
       <c r="D13">
-        <v>-0.03068064389822292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0535950541079251</v>
+      </c>
+      <c r="E13">
+        <v>-0.003822858945363107</v>
+      </c>
+      <c r="F13">
+        <v>0.0009195190274737023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01994253618496262</v>
+        <v>0.02408740170869725</v>
       </c>
       <c r="C14">
-        <v>-0.01539150366163664</v>
+        <v>-0.01381563374125098</v>
       </c>
       <c r="D14">
-        <v>-0.02442921804928308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03373943981710528</v>
+      </c>
+      <c r="E14">
+        <v>0.01917548041025765</v>
+      </c>
+      <c r="F14">
+        <v>0.01395919261081725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03502739945061972</v>
+        <v>0.03306802627317528</v>
       </c>
       <c r="C15">
-        <v>-0.007882095343925049</v>
+        <v>-0.004697670978311365</v>
       </c>
       <c r="D15">
-        <v>-0.02978088651972539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04507098825598106</v>
+      </c>
+      <c r="E15">
+        <v>0.005993894798540419</v>
+      </c>
+      <c r="F15">
+        <v>0.02536956948307146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07883638122041896</v>
+        <v>0.07412947934020497</v>
       </c>
       <c r="C16">
-        <v>-0.00895704688725075</v>
+        <v>-0.0009698271550241668</v>
       </c>
       <c r="D16">
-        <v>-0.09827744720020996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1273485396594468</v>
+      </c>
+      <c r="E16">
+        <v>0.0605386263064934</v>
+      </c>
+      <c r="F16">
+        <v>0.02763544442251228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008118707341961866</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002081300536242759</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001614459045302018</v>
+      </c>
+      <c r="E17">
+        <v>0.0009745483472031338</v>
+      </c>
+      <c r="F17">
+        <v>-0.002308593350644827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01741641130808733</v>
+        <v>0.03675358824327188</v>
       </c>
       <c r="C18">
-        <v>0.003092654697756068</v>
+        <v>0.002883085558841247</v>
       </c>
       <c r="D18">
-        <v>-0.02992532125278564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01540918780961206</v>
+      </c>
+      <c r="E18">
+        <v>-0.008852197330358438</v>
+      </c>
+      <c r="F18">
+        <v>-0.008486961852398434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06612643539776966</v>
+        <v>0.06240568199831779</v>
       </c>
       <c r="C20">
-        <v>-0.006864046205009395</v>
+        <v>-0.0002282938175780389</v>
       </c>
       <c r="D20">
-        <v>-0.05029707983744458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07697080098922204</v>
+      </c>
+      <c r="E20">
+        <v>0.05541664218857148</v>
+      </c>
+      <c r="F20">
+        <v>0.03035635774891782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04096755890858483</v>
+        <v>0.04090618608578107</v>
       </c>
       <c r="C21">
-        <v>-0.01016683320338816</v>
+        <v>-0.006417339145595069</v>
       </c>
       <c r="D21">
-        <v>-0.02930962426408564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03886465750404072</v>
+      </c>
+      <c r="E21">
+        <v>-0.0002524190180942397</v>
+      </c>
+      <c r="F21">
+        <v>-0.02382785346016743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0406407755376728</v>
+        <v>0.04326467902528691</v>
       </c>
       <c r="C22">
-        <v>-0.0008659523962998682</v>
+        <v>-0.0005168575774319028</v>
       </c>
       <c r="D22">
-        <v>0.01178714553304352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004045158373788449</v>
+      </c>
+      <c r="E22">
+        <v>0.03656324196600595</v>
+      </c>
+      <c r="F22">
+        <v>-0.03848954263783093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04060423421185058</v>
+        <v>0.04324052589000431</v>
       </c>
       <c r="C23">
-        <v>-0.0008562315759345515</v>
+        <v>-0.0005083558095445833</v>
       </c>
       <c r="D23">
-        <v>0.01176745262911277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004060662644059846</v>
+      </c>
+      <c r="E23">
+        <v>0.03674628735743726</v>
+      </c>
+      <c r="F23">
+        <v>-0.03844943900201245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08483835105525128</v>
+        <v>0.0800335592479373</v>
       </c>
       <c r="C24">
-        <v>-0.009245023843603433</v>
+        <v>-0.001759797478147861</v>
       </c>
       <c r="D24">
-        <v>-0.1032436693194912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1198362841643692</v>
+      </c>
+      <c r="E24">
+        <v>0.04843582683638378</v>
+      </c>
+      <c r="F24">
+        <v>0.02979831403794639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08985185077982323</v>
+        <v>0.08477556218169915</v>
       </c>
       <c r="C25">
-        <v>-0.01171126340124225</v>
+        <v>-0.00428803091427773</v>
       </c>
       <c r="D25">
-        <v>-0.08962424561188159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093834892492377</v>
+      </c>
+      <c r="E25">
+        <v>0.03196145654160536</v>
+      </c>
+      <c r="F25">
+        <v>0.02675177339830006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05905808534595313</v>
+        <v>0.05916276215328375</v>
       </c>
       <c r="C26">
-        <v>-0.01804070347868177</v>
+        <v>-0.01453119343166172</v>
       </c>
       <c r="D26">
-        <v>-0.01835638023873854</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0423074951243871</v>
+      </c>
+      <c r="E26">
+        <v>0.02978603758817505</v>
+      </c>
+      <c r="F26">
+        <v>-0.005040002247365128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1301937262353032</v>
+        <v>0.1413965874076432</v>
       </c>
       <c r="C28">
-        <v>-0.01073652773806371</v>
+        <v>-0.02225930398044872</v>
       </c>
       <c r="D28">
-        <v>0.271782351449431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2612427692236909</v>
+      </c>
+      <c r="E28">
+        <v>-0.06749838320254919</v>
+      </c>
+      <c r="F28">
+        <v>0.003791292066919605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02646166714641511</v>
+        <v>0.02894893838419302</v>
       </c>
       <c r="C29">
-        <v>-0.009984313961385872</v>
+        <v>-0.00878949976260273</v>
       </c>
       <c r="D29">
-        <v>-0.02113215874143339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03128560497231107</v>
+      </c>
+      <c r="E29">
+        <v>0.01411005176986677</v>
+      </c>
+      <c r="F29">
+        <v>-0.01259229834953614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06699293450873442</v>
+        <v>0.05917655959553232</v>
       </c>
       <c r="C30">
-        <v>-0.0105676679807926</v>
+        <v>-0.002680277974361786</v>
       </c>
       <c r="D30">
-        <v>-0.05944708775168597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08785862990068524</v>
+      </c>
+      <c r="E30">
+        <v>0.01396124123109568</v>
+      </c>
+      <c r="F30">
+        <v>0.07988719380218826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.051126162514886</v>
+        <v>0.05129147033864742</v>
       </c>
       <c r="C31">
-        <v>-0.01706266221011545</v>
+        <v>-0.01566958033495436</v>
       </c>
       <c r="D31">
-        <v>-0.02026989710474881</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02440896789828439</v>
+      </c>
+      <c r="E31">
+        <v>0.02879503757457859</v>
+      </c>
+      <c r="F31">
+        <v>-0.0009726329249864691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04785982811975319</v>
+        <v>0.05143417837381616</v>
       </c>
       <c r="C32">
-        <v>-0.002376852978987932</v>
+        <v>0.001817391507422873</v>
       </c>
       <c r="D32">
-        <v>-0.01950894472113961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03625317646127139</v>
+      </c>
+      <c r="E32">
+        <v>0.03455684787043505</v>
+      </c>
+      <c r="F32">
+        <v>0.004263621324004377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09366446886314829</v>
+        <v>0.08853235849009956</v>
       </c>
       <c r="C33">
-        <v>-0.01425624439137022</v>
+        <v>-0.00645408281850466</v>
       </c>
       <c r="D33">
-        <v>-0.07728887762208164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1028538572074332</v>
+      </c>
+      <c r="E33">
+        <v>0.04477863488856525</v>
+      </c>
+      <c r="F33">
+        <v>0.03931633957168809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07180375851220967</v>
+        <v>0.0680075274191273</v>
       </c>
       <c r="C34">
-        <v>-0.016459151594751</v>
+        <v>-0.01006588829822993</v>
       </c>
       <c r="D34">
-        <v>-0.08431256282837768</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1099789578694285</v>
+      </c>
+      <c r="E34">
+        <v>0.03505605337288602</v>
+      </c>
+      <c r="F34">
+        <v>0.03326264443902309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.023997242603169</v>
+        <v>0.02564790574454081</v>
       </c>
       <c r="C35">
-        <v>-0.002970061512763845</v>
+        <v>-0.0026154323257161</v>
       </c>
       <c r="D35">
-        <v>-0.006636722309153491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01207480564180667</v>
+      </c>
+      <c r="E35">
+        <v>0.0127671276923923</v>
+      </c>
+      <c r="F35">
+        <v>0.001603032947662376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02709034058746667</v>
+        <v>0.02759908100800492</v>
       </c>
       <c r="C36">
-        <v>-0.008065090976268712</v>
+        <v>-0.006854051287618858</v>
       </c>
       <c r="D36">
-        <v>-0.03872448278450625</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03978632412867084</v>
+      </c>
+      <c r="E36">
+        <v>0.01675179895602755</v>
+      </c>
+      <c r="F36">
+        <v>0.0152818065642206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-9.151918536905258e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005320023384291899</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002075577914977825</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007749784307615189</v>
+      </c>
+      <c r="F37">
+        <v>-0.001656762988585923</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.117343772798605</v>
+        <v>0.1038703264252419</v>
       </c>
       <c r="C39">
-        <v>-0.02496173672534956</v>
+        <v>-0.01566631525473559</v>
       </c>
       <c r="D39">
-        <v>-0.1393714895363699</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539011351368265</v>
+      </c>
+      <c r="E39">
+        <v>0.05897830118915484</v>
+      </c>
+      <c r="F39">
+        <v>0.03089915845932735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04067057646330861</v>
+        <v>0.0435206107300421</v>
       </c>
       <c r="C40">
-        <v>-0.009868267640402592</v>
+        <v>-0.00744193388128603</v>
       </c>
       <c r="D40">
-        <v>-0.007817015558920259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03048224007687638</v>
+      </c>
+      <c r="E40">
+        <v>0.001968873591611375</v>
+      </c>
+      <c r="F40">
+        <v>-0.01903255703268581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0256670856506924</v>
+        <v>0.02778404452755822</v>
       </c>
       <c r="C41">
-        <v>-0.007147960338110621</v>
+        <v>-0.006843244460659434</v>
       </c>
       <c r="D41">
-        <v>-0.009880701652681427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01083216329298479</v>
+      </c>
+      <c r="E41">
+        <v>0.01230087823001746</v>
+      </c>
+      <c r="F41">
+        <v>-0.005496050761211031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04247457640841235</v>
+        <v>0.04110587279460709</v>
       </c>
       <c r="C43">
-        <v>-0.008310665260274677</v>
+        <v>-0.007167067018292352</v>
       </c>
       <c r="D43">
-        <v>-0.01311881307934227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01870011242027141</v>
+      </c>
+      <c r="E43">
+        <v>0.02555678298106389</v>
+      </c>
+      <c r="F43">
+        <v>-0.0126641991148185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.076472345598067</v>
+        <v>0.08012339304724075</v>
       </c>
       <c r="C44">
-        <v>-0.02730089589734525</v>
+        <v>-0.01937510568474908</v>
       </c>
       <c r="D44">
-        <v>-0.07771154440400939</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09778744521030436</v>
+      </c>
+      <c r="E44">
+        <v>0.06184438353277571</v>
+      </c>
+      <c r="F44">
+        <v>0.1604584524668902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02069287769627411</v>
+        <v>0.02335735752503747</v>
       </c>
       <c r="C46">
-        <v>-0.003871482053532728</v>
+        <v>-0.003332602380802008</v>
       </c>
       <c r="D46">
-        <v>-0.005696268126343326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01282601899140667</v>
+      </c>
+      <c r="E46">
+        <v>0.02589227219848169</v>
+      </c>
+      <c r="F46">
+        <v>-0.007072865414950297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05353344746928419</v>
+        <v>0.05277430048281753</v>
       </c>
       <c r="C47">
-        <v>-0.004585638455548074</v>
+        <v>-0.003870417402470974</v>
       </c>
       <c r="D47">
-        <v>-0.00703294949425443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01152116637426346</v>
+      </c>
+      <c r="E47">
+        <v>0.02342016679282827</v>
+      </c>
+      <c r="F47">
+        <v>-0.03230707475143151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04960531898871894</v>
+        <v>0.04998551636867933</v>
       </c>
       <c r="C48">
-        <v>-0.00513608456524546</v>
+        <v>-0.002122519633369834</v>
       </c>
       <c r="D48">
-        <v>-0.04162980718853773</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05077145925371963</v>
+      </c>
+      <c r="E48">
+        <v>-0.004803024658767294</v>
+      </c>
+      <c r="F48">
+        <v>0.009684109496327347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2011787896360166</v>
+        <v>0.1996508224145211</v>
       </c>
       <c r="C49">
-        <v>-0.02125008645495503</v>
+        <v>-0.01905707812650455</v>
       </c>
       <c r="D49">
-        <v>0.01789046532747923</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007450619459370048</v>
+      </c>
+      <c r="E49">
+        <v>0.02983499481493754</v>
+      </c>
+      <c r="F49">
+        <v>0.04040581233663961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0505377517078773</v>
+        <v>0.0517133362011881</v>
       </c>
       <c r="C50">
-        <v>-0.01307052918353089</v>
+        <v>-0.01142201069012052</v>
       </c>
       <c r="D50">
-        <v>-0.01977561646278787</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02371746408322191</v>
+      </c>
+      <c r="E50">
+        <v>0.02997712960737914</v>
+      </c>
+      <c r="F50">
+        <v>0.01001744973716234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1552983846627009</v>
+        <v>0.149676581933107</v>
       </c>
       <c r="C52">
-        <v>-0.0197069124186542</v>
+        <v>-0.017889140273231</v>
       </c>
       <c r="D52">
-        <v>-0.04969163555158517</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04087610946959442</v>
+      </c>
+      <c r="E52">
+        <v>0.02039327982192041</v>
+      </c>
+      <c r="F52">
+        <v>0.04367628487182663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.172437521162772</v>
+        <v>0.1713483658938045</v>
       </c>
       <c r="C53">
-        <v>-0.0193199468505412</v>
+        <v>-0.02019367090981567</v>
       </c>
       <c r="D53">
-        <v>-0.01404499364635511</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003476443289045125</v>
+      </c>
+      <c r="E53">
+        <v>0.02786615368895757</v>
+      </c>
+      <c r="F53">
+        <v>0.07310314029237475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01809972980776006</v>
+        <v>0.02081631542265858</v>
       </c>
       <c r="C54">
-        <v>-0.01276967217035974</v>
+        <v>-0.01115960357252215</v>
       </c>
       <c r="D54">
-        <v>-0.0275554537729692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0348194702342616</v>
+      </c>
+      <c r="E54">
+        <v>0.02227483650923379</v>
+      </c>
+      <c r="F54">
+        <v>-0.001667996339479019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1149249665568217</v>
+        <v>0.115123649129726</v>
       </c>
       <c r="C55">
-        <v>-0.0174430359931103</v>
+        <v>-0.01777624405555807</v>
       </c>
       <c r="D55">
-        <v>-0.01177066477602583</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006407230591420152</v>
+      </c>
+      <c r="E55">
+        <v>0.02324985834405744</v>
+      </c>
+      <c r="F55">
+        <v>0.04685491351033755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1784619256961108</v>
+        <v>0.1770086171741607</v>
       </c>
       <c r="C56">
-        <v>-0.0170413203537087</v>
+        <v>-0.01810226365604192</v>
       </c>
       <c r="D56">
-        <v>-0.01011067196689653</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004030854269830084</v>
+      </c>
+      <c r="E56">
+        <v>0.03145159327139271</v>
+      </c>
+      <c r="F56">
+        <v>0.05338529788458538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04958628711446739</v>
+        <v>0.04487109141146915</v>
       </c>
       <c r="C58">
-        <v>-0.005900560356613774</v>
+        <v>0.0003763703409622011</v>
       </c>
       <c r="D58">
-        <v>-0.05425951024785708</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07189482895340819</v>
+      </c>
+      <c r="E58">
+        <v>0.03289313372599821</v>
+      </c>
+      <c r="F58">
+        <v>-0.03654993508448377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1602559877355657</v>
+        <v>0.1667763420319971</v>
       </c>
       <c r="C59">
-        <v>-0.0126241675476083</v>
+        <v>-0.02252127403632301</v>
       </c>
       <c r="D59">
-        <v>0.224738228463617</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176561676812072</v>
+      </c>
+      <c r="E59">
+        <v>-0.04672803471664164</v>
+      </c>
+      <c r="F59">
+        <v>-0.03487781827835203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.237275896161266</v>
+        <v>0.2318312541704358</v>
       </c>
       <c r="C60">
-        <v>-0.001212696652499732</v>
+        <v>0.001877090556830545</v>
       </c>
       <c r="D60">
-        <v>-0.04546164652688443</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03867351694737367</v>
+      </c>
+      <c r="E60">
+        <v>0.006261735041052898</v>
+      </c>
+      <c r="F60">
+        <v>-0.0001011293916777175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08832742754903057</v>
+        <v>0.07991207677775637</v>
       </c>
       <c r="C61">
-        <v>-0.0185718408815272</v>
+        <v>-0.01121198115337528</v>
       </c>
       <c r="D61">
-        <v>-0.09791251223237875</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1175714701344691</v>
+      </c>
+      <c r="E61">
+        <v>0.03906426360264988</v>
+      </c>
+      <c r="F61">
+        <v>0.0134734503673254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1703245921519444</v>
+        <v>0.169331223095233</v>
       </c>
       <c r="C62">
-        <v>-0.0211665039557401</v>
+        <v>-0.02094740271678104</v>
       </c>
       <c r="D62">
-        <v>-0.006336714155326106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004681966525694411</v>
+      </c>
+      <c r="E62">
+        <v>0.03236192308406545</v>
+      </c>
+      <c r="F62">
+        <v>0.03678433425929375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04420008912639894</v>
+        <v>0.04584597283600484</v>
       </c>
       <c r="C63">
-        <v>-0.006166278145775982</v>
+        <v>-0.001710295735679681</v>
       </c>
       <c r="D63">
-        <v>-0.0433022004957971</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05954391457134178</v>
+      </c>
+      <c r="E63">
+        <v>0.02413558788706772</v>
+      </c>
+      <c r="F63">
+        <v>0.0039225594062159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1126210560905363</v>
+        <v>0.1105178174894152</v>
       </c>
       <c r="C64">
-        <v>-0.01495883337753856</v>
+        <v>-0.01139297479467867</v>
       </c>
       <c r="D64">
-        <v>-0.03217794703168955</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04330433181345226</v>
+      </c>
+      <c r="E64">
+        <v>0.02256540459880874</v>
+      </c>
+      <c r="F64">
+        <v>0.02630296984880028</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1395452298045165</v>
+        <v>0.1511368262512604</v>
       </c>
       <c r="C65">
-        <v>-0.03327081436173569</v>
+        <v>-0.0344241835096969</v>
       </c>
       <c r="D65">
-        <v>0.04964913577203158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0454927522934489</v>
+      </c>
+      <c r="E65">
+        <v>0.004396718700197504</v>
+      </c>
+      <c r="F65">
+        <v>0.03649474697151739</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1401615748143453</v>
+        <v>0.1237289313554984</v>
       </c>
       <c r="C66">
-        <v>-0.02305648301275312</v>
+        <v>-0.01365696753989752</v>
       </c>
       <c r="D66">
-        <v>-0.1170986981756203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1410774997133978</v>
+      </c>
+      <c r="E66">
+        <v>0.06390895383390069</v>
+      </c>
+      <c r="F66">
+        <v>0.03428596585276352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06406880873330272</v>
+        <v>0.05721270666172658</v>
       </c>
       <c r="C67">
-        <v>-0.005594054212499265</v>
+        <v>-0.002864461966659728</v>
       </c>
       <c r="D67">
-        <v>-0.05256266861515362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05563578606507885</v>
+      </c>
+      <c r="E67">
+        <v>0.01647675381763955</v>
+      </c>
+      <c r="F67">
+        <v>-0.02963660712645716</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1038025156386901</v>
+        <v>0.116008685972442</v>
       </c>
       <c r="C68">
-        <v>-0.02101968058107355</v>
+        <v>-0.0330189066674591</v>
       </c>
       <c r="D68">
-        <v>0.2720473940470172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615674456064399</v>
+      </c>
+      <c r="E68">
+        <v>-0.08757942805576362</v>
+      </c>
+      <c r="F68">
+        <v>-0.001797058911771884</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04029164122038868</v>
+        <v>0.0390562210186458</v>
       </c>
       <c r="C69">
-        <v>-0.001837982866994343</v>
+        <v>-0.00128478897054923</v>
       </c>
       <c r="D69">
-        <v>-0.007430876924181738</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00786186217729434</v>
+      </c>
+      <c r="E69">
+        <v>0.02337002914771725</v>
+      </c>
+      <c r="F69">
+        <v>0.001012160512163466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06799001792857115</v>
+        <v>0.06689328992422058</v>
       </c>
       <c r="C70">
-        <v>0.02406714497119967</v>
+        <v>0.02729700948430551</v>
       </c>
       <c r="D70">
-        <v>0.01428420059653424</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0244148795003163</v>
+      </c>
+      <c r="E70">
+        <v>-0.03060146561582059</v>
+      </c>
+      <c r="F70">
+        <v>-0.1785728027185461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1217016894473046</v>
+        <v>0.1356632356503664</v>
       </c>
       <c r="C71">
-        <v>-0.02440733930760346</v>
+        <v>-0.03737348066859088</v>
       </c>
       <c r="D71">
-        <v>0.2860576381347552</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723934510466513</v>
+      </c>
+      <c r="E71">
+        <v>-0.09757966716591727</v>
+      </c>
+      <c r="F71">
+        <v>0.004340722191799033</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1385485983549302</v>
+        <v>0.1431838861741127</v>
       </c>
       <c r="C72">
-        <v>-0.02749699182060385</v>
+        <v>-0.02756613277440211</v>
       </c>
       <c r="D72">
-        <v>-0.001099246339825535</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004796669456106335</v>
+      </c>
+      <c r="E72">
+        <v>0.03594371660873618</v>
+      </c>
+      <c r="F72">
+        <v>0.03062104259798166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2057763662191907</v>
+        <v>0.2044736885104042</v>
       </c>
       <c r="C73">
-        <v>-0.01693055340602616</v>
+        <v>-0.01331782756758444</v>
       </c>
       <c r="D73">
-        <v>-0.01454605249949422</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01682624169513046</v>
+      </c>
+      <c r="E73">
+        <v>0.06341913776173344</v>
+      </c>
+      <c r="F73">
+        <v>0.03940173738376233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09301322968492753</v>
+        <v>0.09558425607915275</v>
       </c>
       <c r="C74">
-        <v>-0.01373186603985814</v>
+        <v>-0.01372903528415107</v>
       </c>
       <c r="D74">
-        <v>-0.02160517563946364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01561659231492545</v>
+      </c>
+      <c r="E74">
+        <v>0.04339101927026869</v>
+      </c>
+      <c r="F74">
+        <v>0.0562747749472512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.133866515687067</v>
+        <v>0.127613239017976</v>
       </c>
       <c r="C75">
-        <v>-0.03006841047114773</v>
+        <v>-0.02858041806187996</v>
       </c>
       <c r="D75">
-        <v>-0.02850620557977703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02833365339546987</v>
+      </c>
+      <c r="E75">
+        <v>0.05625034821885793</v>
+      </c>
+      <c r="F75">
+        <v>0.02224692303210376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08438213083051259</v>
+        <v>0.08932527608957826</v>
       </c>
       <c r="C77">
-        <v>-0.01576138018712368</v>
+        <v>-0.007991510695095305</v>
       </c>
       <c r="D77">
-        <v>-0.09397176476166537</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.114148214105645</v>
+      </c>
+      <c r="E77">
+        <v>0.04329049743885113</v>
+      </c>
+      <c r="F77">
+        <v>0.03503988903916457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1047950949998886</v>
+        <v>0.1006360055272543</v>
       </c>
       <c r="C78">
-        <v>-0.04654671106616069</v>
+        <v>-0.03935955169212463</v>
       </c>
       <c r="D78">
-        <v>-0.1004515990400099</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1144870654119347</v>
+      </c>
+      <c r="E78">
+        <v>0.07572682584461486</v>
+      </c>
+      <c r="F78">
+        <v>0.05020850213784855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1636753516958527</v>
+        <v>0.163658475173483</v>
       </c>
       <c r="C79">
-        <v>-0.02414066525099716</v>
+        <v>-0.02332227551920569</v>
       </c>
       <c r="D79">
-        <v>-0.01443748519065213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01185035617275266</v>
+      </c>
+      <c r="E79">
+        <v>0.04401219402421042</v>
+      </c>
+      <c r="F79">
+        <v>0.01176588071213546</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08633418582352906</v>
+        <v>0.08235812767049741</v>
       </c>
       <c r="C80">
-        <v>-0.001902968717888266</v>
+        <v>0.0006104254631145392</v>
       </c>
       <c r="D80">
-        <v>-0.04350487118658192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05530794413512168</v>
+      </c>
+      <c r="E80">
+        <v>0.03546945828706478</v>
+      </c>
+      <c r="F80">
+        <v>-0.01966444884970119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1201189748678805</v>
+        <v>0.1182077195690939</v>
       </c>
       <c r="C81">
-        <v>-0.03229478359020966</v>
+        <v>-0.03206381744352167</v>
       </c>
       <c r="D81">
-        <v>-0.0229339387436191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01360072398064503</v>
+      </c>
+      <c r="E81">
+        <v>0.05479083288367936</v>
+      </c>
+      <c r="F81">
+        <v>0.01981327299788498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1659629498074146</v>
+        <v>0.1662980210171141</v>
       </c>
       <c r="C82">
-        <v>-0.02484023155236899</v>
+        <v>-0.02558065286249167</v>
       </c>
       <c r="D82">
-        <v>-0.01338533942024612</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001219089105876781</v>
+      </c>
+      <c r="E82">
+        <v>0.02415384065137713</v>
+      </c>
+      <c r="F82">
+        <v>0.08093949937562055</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06720768210162464</v>
+        <v>0.05878599817858816</v>
       </c>
       <c r="C83">
-        <v>-0.006225082896927859</v>
+        <v>-0.003008413559293319</v>
       </c>
       <c r="D83">
-        <v>-0.03400173999529851</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04946705198423065</v>
+      </c>
+      <c r="E83">
+        <v>0.002853529366746813</v>
+      </c>
+      <c r="F83">
+        <v>-0.02922531866024449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06470573623859743</v>
+        <v>0.05834226033857358</v>
       </c>
       <c r="C84">
-        <v>-0.01492014564517113</v>
+        <v>-0.01078924273898786</v>
       </c>
       <c r="D84">
-        <v>-0.06475843228473366</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07268216422536874</v>
+      </c>
+      <c r="E84">
+        <v>0.01461176480690432</v>
+      </c>
+      <c r="F84">
+        <v>0.01413644113953099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1368664681759467</v>
+        <v>0.1354374534903845</v>
       </c>
       <c r="C85">
-        <v>-0.02841747906352687</v>
+        <v>-0.02853807975467886</v>
       </c>
       <c r="D85">
-        <v>-0.01782745576352268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.00795418496729746</v>
+      </c>
+      <c r="E85">
+        <v>0.03500397771857015</v>
+      </c>
+      <c r="F85">
+        <v>0.04691376829335793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1032368883589631</v>
+        <v>0.09331468426725989</v>
       </c>
       <c r="C86">
-        <v>0.002369793093417094</v>
+        <v>0.006356468874589032</v>
       </c>
       <c r="D86">
-        <v>0.009603987965478107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05035558013896647</v>
+      </c>
+      <c r="E86">
+        <v>0.2434603587626644</v>
+      </c>
+      <c r="F86">
+        <v>-0.9025317655457613</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1006000410527521</v>
+        <v>0.09408005364174936</v>
       </c>
       <c r="C87">
-        <v>-0.02891740399553114</v>
+        <v>-0.01921419848125217</v>
       </c>
       <c r="D87">
-        <v>-0.06567825882076289</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09467127171218966</v>
+      </c>
+      <c r="E87">
+        <v>-0.0526686328580025</v>
+      </c>
+      <c r="F87">
+        <v>0.04722943800444019</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06090888984143577</v>
+        <v>0.06031794240191742</v>
       </c>
       <c r="C88">
-        <v>-0.005288031553009439</v>
+        <v>-0.002263839064826473</v>
       </c>
       <c r="D88">
-        <v>-0.05409443470810508</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04950391953606327</v>
+      </c>
+      <c r="E88">
+        <v>0.023984288189769</v>
+      </c>
+      <c r="F88">
+        <v>0.01539085779329722</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1157838749860829</v>
+        <v>0.126873765949488</v>
       </c>
       <c r="C89">
-        <v>-0.001655935811284163</v>
+        <v>-0.01282336375726816</v>
       </c>
       <c r="D89">
-        <v>0.2603189833496024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2436256818787539</v>
+      </c>
+      <c r="E89">
+        <v>-0.08914240211353743</v>
+      </c>
+      <c r="F89">
+        <v>-0.0125088141047446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1325843814327317</v>
+        <v>0.1503571040674583</v>
       </c>
       <c r="C90">
-        <v>-0.02117680434542255</v>
+        <v>-0.0340788837398258</v>
       </c>
       <c r="D90">
-        <v>0.2739496397302701</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700774756825665</v>
+      </c>
+      <c r="E90">
+        <v>-0.113732733985143</v>
+      </c>
+      <c r="F90">
+        <v>-0.01252643986995982</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1198968573507504</v>
+        <v>0.121564695102645</v>
       </c>
       <c r="C91">
-        <v>-0.01925913409984843</v>
+        <v>-0.02025695047018834</v>
       </c>
       <c r="D91">
-        <v>0.008797234381407774</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0168982953301756</v>
+      </c>
+      <c r="E91">
+        <v>0.05423702208553827</v>
+      </c>
+      <c r="F91">
+        <v>-0.0006826328598018743</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1366854218084241</v>
+        <v>0.1465748739822049</v>
       </c>
       <c r="C92">
-        <v>-0.01106916886675676</v>
+        <v>-0.02453988051129253</v>
       </c>
       <c r="D92">
-        <v>0.3088745588610305</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.290523076099139</v>
+      </c>
+      <c r="E92">
+        <v>-0.1014921262312954</v>
+      </c>
+      <c r="F92">
+        <v>-0.02123367321696545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1362124001720138</v>
+        <v>0.1505934948035731</v>
       </c>
       <c r="C93">
-        <v>-0.0167962890553955</v>
+        <v>-0.0289372093898534</v>
       </c>
       <c r="D93">
-        <v>0.2694597516782234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2653482501493456</v>
+      </c>
+      <c r="E93">
+        <v>-0.0762680959604793</v>
+      </c>
+      <c r="F93">
+        <v>-0.001914138864744751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1346799774374488</v>
+        <v>0.1284272228087907</v>
       </c>
       <c r="C94">
-        <v>-0.02718969617877464</v>
+        <v>-0.02505435739526377</v>
       </c>
       <c r="D94">
-        <v>-0.04235610569303647</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04009114814392153</v>
+      </c>
+      <c r="E94">
+        <v>0.05634167270136181</v>
+      </c>
+      <c r="F94">
+        <v>0.03521234899721003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1267188260435067</v>
+        <v>0.126085528727532</v>
       </c>
       <c r="C95">
-        <v>-0.01059546320630413</v>
+        <v>-0.003304467112397034</v>
       </c>
       <c r="D95">
-        <v>-0.07629539516813043</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09806306458979883</v>
+      </c>
+      <c r="E95">
+        <v>0.05313110337629864</v>
+      </c>
+      <c r="F95">
+        <v>-0.005600598818349615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1182631313034232</v>
+        <v>0.1106031153711983</v>
       </c>
       <c r="C96">
-        <v>0.9871950606048152</v>
+        <v>0.9869523700301028</v>
       </c>
       <c r="D96">
-        <v>0.009002070110414116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05130272649767387</v>
+      </c>
+      <c r="E96">
+        <v>0.0523489162788169</v>
+      </c>
+      <c r="F96">
+        <v>0.04310670988785811</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1926176087468207</v>
+        <v>0.1926196893273339</v>
       </c>
       <c r="C97">
-        <v>0.006113055332318526</v>
+        <v>0.006351188473650541</v>
       </c>
       <c r="D97">
-        <v>0.0139123121065234</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02075418423097326</v>
+      </c>
+      <c r="E97">
+        <v>0.02098930579401957</v>
+      </c>
+      <c r="F97">
+        <v>-0.09144558956670326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1996477076145911</v>
+        <v>0.2062881976885054</v>
       </c>
       <c r="C98">
-        <v>-0.01120051703369814</v>
+        <v>-0.007237645421414923</v>
       </c>
       <c r="D98">
-        <v>-0.01206641415766692</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01347572810004277</v>
+      </c>
+      <c r="E98">
+        <v>-0.07487285839908804</v>
+      </c>
+      <c r="F98">
+        <v>-0.0920491394283889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05642369931141562</v>
+        <v>0.05471621636895904</v>
       </c>
       <c r="C99">
-        <v>0.002017118419672558</v>
+        <v>0.004429335831458745</v>
       </c>
       <c r="D99">
-        <v>-0.02273080415310594</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0383093398320751</v>
+      </c>
+      <c r="E99">
+        <v>0.02118204766601115</v>
+      </c>
+      <c r="F99">
+        <v>0.003344699177761962</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.142078004779272</v>
+        <v>0.1285241701754773</v>
       </c>
       <c r="C100">
-        <v>0.03732453474516612</v>
+        <v>0.05303128305456727</v>
       </c>
       <c r="D100">
-        <v>-0.4258019350658999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3498111817133736</v>
+      </c>
+      <c r="E100">
+        <v>-0.8828440719789393</v>
+      </c>
+      <c r="F100">
+        <v>-0.1693820871960194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02630898690083638</v>
+        <v>0.02889308228061784</v>
       </c>
       <c r="C101">
-        <v>-0.009887017789668053</v>
+        <v>-0.008802895493022794</v>
       </c>
       <c r="D101">
-        <v>-0.02078923839548397</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03095257877630254</v>
+      </c>
+      <c r="E101">
+        <v>0.01352955547487497</v>
+      </c>
+      <c r="F101">
+        <v>-0.0137671647721214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
